--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1197831.865572958</v>
+        <v>-1152772.746248905</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10186837.47318451</v>
+        <v>10188938.01863959</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>386.1447087261617</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>138.5890024518749</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>98.59511639915458</v>
+        <v>15.68977831836901</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -902,13 +902,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>41.5120126584732</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>184.9203686683008</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2.594074031126442</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>261.0807034694559</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>194.5626615006481</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>326.0523421100194</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,7 +1339,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,13 +1348,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>159.2690179742499</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>45.76594660771059</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,22 +1373,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>343.0653724641662</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225481</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>46.22530271040065</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199241</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1771,16 +1771,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F16" t="n">
-        <v>172.4933240080317</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735226156</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2245,13 +2245,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>28.46824604904392</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170529</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>147.6996518856833</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277809</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432308</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.111430947275949e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3424,7 +3424,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.600384062859</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432289</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432289</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>417.5253377496635</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
         <v>413.2012870545404</v>
@@ -3992,7 +3992,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934497</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S46" t="n">
         <v>141.413244676236</v>
@@ -4195,7 +4195,7 @@
         <v>267.8502427095265</v>
       </c>
       <c r="W46" t="n">
-        <v>253.0704300308229</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X46" t="n">
         <v>226.7021267811743</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>908.266909529336</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2217491998797</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4331,16 +4331,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>874.0494664914149</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1557.194538714887</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1557.194538714887</v>
       </c>
       <c r="W2" t="n">
-        <v>1334.566480014244</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="X2" t="n">
-        <v>1334.566480014244</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="Y2" t="n">
-        <v>1334.566480014244</v>
+        <v>1152.33908412592</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>537.9746478910331</v>
+        <v>549.0904269551045</v>
       </c>
       <c r="C4" t="n">
-        <v>365.412936374258</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D4" t="n">
-        <v>199.5349435757807</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4486,22 +4486,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4513,25 +4513,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1576.174582119977</v>
+        <v>1500.675979156141</v>
       </c>
       <c r="U4" t="n">
-        <v>1297.741581373082</v>
+        <v>1500.675979156141</v>
       </c>
       <c r="V4" t="n">
-        <v>1010.786073243512</v>
+        <v>1213.720471026571</v>
       </c>
       <c r="W4" t="n">
-        <v>1010.786073243512</v>
+        <v>1213.720471026571</v>
       </c>
       <c r="X4" t="n">
-        <v>765.3943185769249</v>
+        <v>968.3287163599834</v>
       </c>
       <c r="Y4" t="n">
-        <v>537.9746478910331</v>
+        <v>740.9090456740917</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1379.637330637604</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1345.535261861432</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1313.66588107628</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>879.8911362345752</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.0237066437829</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1738.870975579373</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1815.640912640688</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1815.640912640688</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1815.640912640688</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640688</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599283</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2489.36243743469</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>2230.140134751707</v>
       </c>
       <c r="V5" t="n">
-        <v>771.6250763881362</v>
+        <v>2230.140134751707</v>
       </c>
       <c r="W5" t="n">
-        <v>366.7696217991695</v>
+        <v>1825.28468016274</v>
       </c>
       <c r="X5" t="n">
-        <v>179.9813706190676</v>
+        <v>1406.142216742051</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1401.896497082108</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083433</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750439</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937167</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.2124341566272</v>
+        <v>621.5077140680348</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>448.9460025512597</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>448.9460025512597</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>279.187998801997</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.187998801997</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.187998801997</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704679</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.2055604317366</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>411.9640150028722</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>830.1738967708333</v>
       </c>
       <c r="M7" t="n">
-        <v>1146.964903885608</v>
+        <v>1289.657763951746</v>
       </c>
       <c r="N7" t="n">
-        <v>1146.964903885608</v>
+        <v>1731.916567109391</v>
       </c>
       <c r="O7" t="n">
-        <v>1566.63415311139</v>
+        <v>2151.585816335172</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2363.100988488007</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2528.673486553222</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2369.432117851219</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2123.552671429674</v>
       </c>
       <c r="U7" t="n">
-        <v>1187.586101366493</v>
+        <v>1845.119670682779</v>
       </c>
       <c r="V7" t="n">
-        <v>900.6305932369232</v>
+        <v>1558.16416255321</v>
       </c>
       <c r="W7" t="n">
-        <v>628.6041888232147</v>
+        <v>1286.137758139501</v>
       </c>
       <c r="X7" t="n">
-        <v>383.2124341566272</v>
+        <v>1040.746003472914</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.2124341566272</v>
+        <v>813.326332787022</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1434.694206920162</v>
+        <v>1674.185399119637</v>
       </c>
       <c r="C8" t="n">
-        <v>1400.592138143989</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D8" t="n">
-        <v>972.0104638812575</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E8" t="n">
-        <v>543.4287896185258</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>519.6017640681376</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1477.116202953456</v>
+        <v>2120.647799193336</v>
       </c>
       <c r="W8" t="n">
-        <v>1476.301152404893</v>
+        <v>1715.792344604369</v>
       </c>
       <c r="X8" t="n">
-        <v>1461.199093024608</v>
+        <v>1700.690285224084</v>
       </c>
       <c r="Y8" t="n">
-        <v>1456.953373364666</v>
+        <v>1696.444565564141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>299.3106718651768</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>299.3106718651768</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>299.3106718651768</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>299.3106718651768</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>67.00315850392299</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>341.7616130750586</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>341.7616130750586</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.45316161735</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>990.5753656837642</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>718.5489612700557</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>718.5489612700557</v>
+        <v>1359.879047826402</v>
       </c>
       <c r="Y10" t="n">
-        <v>491.1292905841639</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1586.591373721432</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1148.448900904855</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>801.9182216481217</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>368.143476806417</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>368.143476806417</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>368.143476806417</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>79.01332224963323</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963323</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>79.01332224963323</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>620.2777260112485</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1598.06758885046</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1598.06758885046</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>1598.06758885046</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2575.857451689671</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3404.167326523067</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3950.666112481662</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481662</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.014238665499</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3867.014238665499</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3607.791935982515</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3245.174985916342</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2840.319531327375</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2421.177067906686</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2012.89094420634</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409261</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775683</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241216</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510753</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.1340641672369</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334208</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963323</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>105.0769954100908</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>429.6353203763031</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634102</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569394</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025884</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414684</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206892</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1158.071482861515</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>985.5097713447395</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>819.6317785462622</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>649.8737747969996</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>473.1667207587557</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>307.5754457845834</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>167.6732714749579</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963323</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143231</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854587</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534197</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.255110857805</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.255110857805</v>
+        <v>2700.681281130897</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.37566443626</v>
+        <v>2454.801834709353</v>
       </c>
       <c r="U13" t="n">
-        <v>2381.683439476259</v>
+        <v>2176.368833962458</v>
       </c>
       <c r="V13" t="n">
-        <v>2094.72793134669</v>
+        <v>1889.413325832888</v>
       </c>
       <c r="W13" t="n">
-        <v>1822.701526932981</v>
+        <v>1617.38692141918</v>
       </c>
       <c r="X13" t="n">
-        <v>1577.309772266394</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1349.890101580502</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
         <v>2090.757574835212</v>
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,43 +5285,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1090.187678435286</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>917.6259669185112</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>751.7479741200339</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>581.9899703707711</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5467,19 +5467,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2313.799635050031</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>2026.844126920461</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1754.817722506753</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1509.425967840165</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1282.006297154273</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5689,13 +5689,13 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
         <v>2700.681281130895</v>
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5756,10 +5756,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>639.1929661716173</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>473.31497337314</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238773</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856335</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5923,37 +5923,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S22" t="n">
         <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6169,7 +6169,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S25" t="n">
         <v>2700.681281130895</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6850,7 +6850,7 @@
         <v>298.0235489799766</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832272</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.390877206712</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.648111803011</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.138034390332</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961503</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835866</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197266</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581899</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.415497673522</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403415</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574027</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566214</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278743</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992527</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886293</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030281</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666415</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412738</v>
+        <v>442.5209799463108</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799776</v>
+        <v>293.3294123850146</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>169.8269454882652</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708293</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298638</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7172,34 +7172,34 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
         <v>4607.415497673521</v>
@@ -7254,22 +7254,22 @@
         <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q39" t="n">
         <v>1643.633687060287</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463108</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850146</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882652</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581786</v>
@@ -7339,13 +7339,13 @@
         <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301956</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
         <v>2658.547011361804</v>
@@ -7354,28 +7354,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I41" t="n">
         <v>97.56670367581785</v>
@@ -7439,22 +7439,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q42" t="n">
         <v>1643.633687060287</v>
@@ -7564,28 +7564,28 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758688</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823643</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856853</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301958</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694963</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231237</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7646,28 +7646,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>291.2390549651854</v>
       </c>
       <c r="K44" t="n">
-        <v>931.9169956339958</v>
+        <v>291.2390549651854</v>
       </c>
       <c r="L44" t="n">
-        <v>2006.976961886855</v>
+        <v>1366.299021218045</v>
       </c>
       <c r="M44" t="n">
-        <v>2006.976961886855</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
@@ -7676,22 +7676,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7807,40 +7807,40 @@
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823643</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856853</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301958</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694963</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156104</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361806</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
         <v>1677.257834230405</v>
@@ -7979,19 +7979,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>236.2898988798406</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102565</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380848</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>28.49579817779772</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>213.6516890432677</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.39342414375217</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>546.7317209713286</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>987.6665281204155</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204155</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>521.5857520623649</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>195.6286376660279</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>350.72306039261</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>47.61633936224922</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>118.3619838299105</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>118.0410772042784</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>59.31812880940584</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>88.48531451313374</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627285</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F16" t="n">
-        <v>2.446659489829671</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308168428</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627218</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>821360.5653197638</v>
+        <v>675487.7715374928</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>889635.8346079673</v>
+        <v>896051.4068743637</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>889635.8346079673</v>
+        <v>897118.7358425678</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>743718.1106399286</v>
+        <v>896460.1937623277</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896460.1937623278</v>
+        <v>896460.1937623277</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>911556.0143610439</v>
+        <v>910168.9681205144</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61766.47119490078</v>
+        <v>50545.48705780302</v>
       </c>
       <c r="C2" t="n">
         <v>67018.41498630104</v>
@@ -26320,34 +26320,34 @@
         <v>67018.41498630105</v>
       </c>
       <c r="E2" t="n">
-        <v>54636.21388007122</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="F2" t="n">
-        <v>65857.19801716905</v>
+        <v>65857.19801716901</v>
       </c>
       <c r="G2" t="n">
-        <v>65857.19801716904</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="H2" t="n">
-        <v>65857.19801716901</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="I2" t="n">
         <v>65857.19801716902</v>
       </c>
       <c r="J2" t="n">
+        <v>65857.19801716902</v>
+      </c>
+      <c r="K2" t="n">
         <v>65857.19801716901</v>
-      </c>
-      <c r="K2" t="n">
-        <v>65857.19801716902</v>
       </c>
       <c r="L2" t="n">
         <v>67018.41498630107</v>
       </c>
       <c r="M2" t="n">
-        <v>67018.41498630107</v>
+        <v>67018.41498630105</v>
       </c>
       <c r="N2" t="n">
-        <v>67018.41498630108</v>
+        <v>67018.41498630105</v>
       </c>
       <c r="O2" t="n">
         <v>67018.41498630107</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246215</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106428</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880864997</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658738</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338203</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099788</v>
+        <v>21768.74196143525</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.2245962799</v>
+        <v>137577.7007378521</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713901</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163583.4402648853</v>
+        <v>112346.8938574592</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146256.0480753018</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>34116.27680298295</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26448,16 +26448,16 @@
         <v>46465.30974654597</v>
       </c>
       <c r="M4" t="n">
-        <v>46465.30974654598</v>
+        <v>55396.20108640294</v>
       </c>
       <c r="N4" t="n">
         <v>55396.20108640299</v>
       </c>
       <c r="O4" t="n">
+        <v>55396.20108640299</v>
+      </c>
+      <c r="P4" t="n">
         <v>55396.201086403</v>
-      </c>
-      <c r="P4" t="n">
-        <v>55396.20108640299</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295556</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972126</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608973</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-303433.0578669168</v>
+        <v>-263746.9541551584</v>
       </c>
       <c r="C6" t="n">
-        <v>-179970.9062067346</v>
+        <v>-218710.0476844185</v>
       </c>
       <c r="D6" t="n">
-        <v>-179970.9062067346</v>
+        <v>-157354.1600154255</v>
       </c>
       <c r="E6" t="n">
-        <v>-207740.2759191327</v>
+        <v>-235362.3260789686</v>
       </c>
       <c r="F6" t="n">
-        <v>-136246.7218751236</v>
+        <v>-53007.21685791884</v>
       </c>
       <c r="G6" t="n">
-        <v>-52983.9925185362</v>
+        <v>-53007.21685791886</v>
       </c>
       <c r="H6" t="n">
-        <v>-52983.99251853624</v>
+        <v>-53007.21685791882</v>
       </c>
       <c r="I6" t="n">
-        <v>-52983.99251853621</v>
+        <v>-53007.21685791885</v>
       </c>
       <c r="J6" t="n">
-        <v>-163998.4578635264</v>
+        <v>-164021.682202909</v>
       </c>
       <c r="K6" t="n">
-        <v>-52983.99251853621</v>
+        <v>-106675.5439213009</v>
       </c>
       <c r="L6" t="n">
-        <v>-71518.62156950345</v>
+        <v>-80298.79525994082</v>
       </c>
       <c r="M6" t="n">
-        <v>-198924.2778947855</v>
+        <v>-201471.1015640437</v>
       </c>
       <c r="N6" t="n">
-        <v>-120696.2014833306</v>
+        <v>-63893.40082619166</v>
       </c>
       <c r="O6" t="n">
+        <v>-63893.40082619163</v>
+      </c>
+      <c r="P6" t="n">
         <v>-63893.40082619165</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-63893.40082619163</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>16.23571033874735</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204155</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179806</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977202</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003111</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643299</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179806</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977202</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003111</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273078</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179806</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977202</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003111</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643299</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,64 +27388,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>99.50457102578127</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>358.9907805655117</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H2" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T2" t="n">
-        <v>217.8665548556918</v>
-      </c>
-      <c r="U2" t="n">
-        <v>256.6300796561533</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>344.8851336539373</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>144.8255355581747</v>
+        <v>227.7308736389603</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>176.3545421972186</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>230.0306701181816</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>18.60956905055539</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>14.56796726996981</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>202.8211915623206</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>32.9384384554923</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>124.816935074024</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>197.1718905122111</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.077679705490977e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>7.629758893644663e-13</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791302861</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="36">
@@ -30639,7 +30639,7 @@
         <v>16.23571033874735</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874862</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K43" t="n">
         <v>16.23571033874735</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874862</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34699,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>236.2898988798406</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102565</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380848</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>28.49579817779772</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>213.6516890432677</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.39342414375217</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>546.7317209713286</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>987.6665281204155</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204155</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165111</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512952</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37315,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37470,7 +37470,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37552,19 +37552,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>521.5857520623649</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37707,19 +37707,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033056</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343477</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778293</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37944,19 +37944,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>195.6286376660279</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>350.72306039261</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38175,19 +38175,19 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348452</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
